--- a/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\19,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\19,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B966C-6CFB-4DE1-8897-85D40BAA3E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F82043-D48B-4056-A9E7-49BB7B115E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Период: 12.10.2023 - 19.10.2023</t>
   </si>
@@ -223,6 +223,21 @@
   </si>
   <si>
     <t>скорей всего завод не отгрузит</t>
+  </si>
+  <si>
+    <t>+1000</t>
+  </si>
+  <si>
+    <t>+300</t>
+  </si>
+  <si>
+    <t>+800</t>
+  </si>
+  <si>
+    <t>+900</t>
+  </si>
+  <si>
+    <t>дозаказ</t>
   </si>
 </sst>
 </file>
@@ -233,7 +248,7 @@
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -241,10 +256,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -269,6 +288,13 @@
     <font>
       <b/>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -392,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,6 +483,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2454,10 +2484,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="AD13" sqref="AD12:AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -2475,15 +2505,18 @@
     <col min="16" max="16" width="24" style="15" customWidth="1"/>
     <col min="17" max="18" width="5.83203125" style="2" customWidth="1"/>
     <col min="19" max="21" width="9" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.5" style="2"/>
-    <col min="24" max="24" width="1.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="30"/>
+    <col min="23" max="23" width="10.5" style="2"/>
+    <col min="24" max="24" width="10.1640625" style="2" customWidth="1"/>
     <col min="25" max="25" width="10.5" style="21"/>
     <col min="26" max="26" width="8.5" style="22" customWidth="1"/>
     <col min="27" max="27" width="8.5" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="10.5" style="2"/>
+    <col min="28" max="28" width="8.5" style="22" customWidth="1"/>
+    <col min="29" max="29" width="8.5" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2491,10 +2524,13 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D2" s="3"/>
+      <c r="AB2" s="33" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2550,7 +2586,7 @@
       <c r="U3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="31" t="s">
         <v>52</v>
       </c>
       <c r="W3" s="15" t="s">
@@ -2566,8 +2602,14 @@
       <c r="AA3" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="AB3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2611,8 +2653,10 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="15"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="15"/>
     </row>
-    <row r="5" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2649,7 +2693,7 @@
       </c>
       <c r="N5" s="19">
         <f t="shared" si="1"/>
-        <v>19580</v>
+        <v>20580</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" ref="O5" si="2">SUM(O6:O51)</f>
@@ -2673,7 +2717,7 @@
       <c r="V5" s="15"/>
       <c r="W5" s="19">
         <f>SUM(W6:W96)</f>
-        <v>13057.1</v>
+        <v>14057.1</v>
       </c>
       <c r="X5" s="19">
         <f>SUM(X6:X96)</f>
@@ -2690,8 +2734,16 @@
         <f t="shared" si="3"/>
         <v>13077.1</v>
       </c>
+      <c r="AB5" s="20">
+        <f t="shared" ref="AB5:AC5" si="4">SUM(AB6:AB96)</f>
+        <v>578</v>
+      </c>
+      <c r="AC5" s="19">
+        <f t="shared" si="4"/>
+        <v>2973.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2747,6 +2799,7 @@
         <f>VLOOKUP(A6,[1]TDSheet!$A:$M,13,0)</f>
         <v>269</v>
       </c>
+      <c r="V6" s="2"/>
       <c r="W6" s="2">
         <f>N6*H6</f>
         <v>75</v>
@@ -2763,7 +2816,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +2845,7 @@
         <v>0.3</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:M37" si="4">F7/5</f>
+        <f t="shared" ref="M7:M37" si="5">F7/5</f>
         <v>206.4</v>
       </c>
       <c r="N7" s="23">
@@ -2800,11 +2853,11 @@
       </c>
       <c r="O7" s="29"/>
       <c r="Q7" s="2">
-        <f t="shared" ref="Q7:Q37" si="5">(G7+N7)/M7</f>
+        <f t="shared" ref="Q7:Q37" si="6">(G7+N7)/M7</f>
         <v>13.294573643410851</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:R37" si="6">G7/M7</f>
+        <f t="shared" ref="R7:R37" si="7">G7/M7</f>
         <v>10.872093023255813</v>
       </c>
       <c r="S7" s="2">
@@ -2819,8 +2872,9 @@
         <f>VLOOKUP(A7,[1]TDSheet!$A:$M,13,0)</f>
         <v>284.39999999999998</v>
       </c>
+      <c r="V7" s="2"/>
       <c r="W7" s="2">
-        <f t="shared" ref="W7:W35" si="7">N7*H7</f>
+        <f t="shared" ref="W7:W35" si="8">N7*H7</f>
         <v>150</v>
       </c>
       <c r="Y7" s="21">
@@ -2831,11 +2885,11 @@
         <v>42</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" ref="AA7:AA37" si="8">Z7*Y7*H7</f>
+        <f t="shared" ref="AA7:AA37" si="9">Z7*Y7*H7</f>
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2857,17 +2911,17 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="29"/>
       <c r="Q8" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S8" s="2">
@@ -2883,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y8" s="21">
@@ -2891,15 +2945,15 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="Z8" s="22">
-        <f t="shared" ref="Z7:Z37" si="9">N8/Y8</f>
+        <f t="shared" ref="Z8:Z31" si="10">N8/Y8</f>
         <v>0</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -2917,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N9" s="25">
@@ -2925,11 +2979,11 @@
       </c>
       <c r="O9" s="29"/>
       <c r="Q9" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R9" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S9" s="2">
@@ -2945,7 +2999,7 @@
         <v>7.4</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="Y9" s="21">
@@ -2956,11 +3010,11 @@
         <v>27</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99.9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -2984,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.36</v>
       </c>
       <c r="N10" s="23">
@@ -2992,11 +3046,11 @@
       </c>
       <c r="O10" s="29"/>
       <c r="Q10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.475349521707138</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0132450331125828</v>
       </c>
       <c r="S10" s="2">
@@ -3012,7 +3066,7 @@
         <v>1.08</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
       <c r="Y10" s="21">
@@ -3023,11 +3077,11 @@
         <v>256</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>460.8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -3049,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85.84</v>
       </c>
       <c r="N11" s="23">
@@ -3057,11 +3111,11 @@
       </c>
       <c r="O11" s="29"/>
       <c r="Q11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1547064305684991</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S11" s="2">
@@ -3077,7 +3131,7 @@
         <v>165.02</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="Y11" s="21">
@@ -3088,11 +3142,11 @@
         <v>190</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3121,7 +3175,7 @@
         <v>0.25</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128.6</v>
       </c>
       <c r="N12" s="23">
@@ -3129,11 +3183,11 @@
       </c>
       <c r="O12" s="29"/>
       <c r="Q12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.491446345256611</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.325038880248835</v>
       </c>
       <c r="S12" s="2">
@@ -3148,8 +3202,9 @@
         <f>VLOOKUP(A12,[1]TDSheet!$A:$M,13,0)</f>
         <v>206.6</v>
       </c>
+      <c r="V12" s="2"/>
       <c r="W12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.5</v>
       </c>
       <c r="Y12" s="21">
@@ -3160,11 +3215,11 @@
         <v>25</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -3188,7 +3243,7 @@
         <v>0.25</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>161.4</v>
       </c>
       <c r="N13" s="23">
@@ -3196,11 +3251,11 @@
       </c>
       <c r="O13" s="29"/>
       <c r="Q13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.251548946716232</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.648079306071871</v>
       </c>
       <c r="S13" s="2">
@@ -3215,8 +3270,9 @@
         <f>VLOOKUP(A13,[1]TDSheet!$A:$M,13,0)</f>
         <v>54.2</v>
       </c>
+      <c r="V13" s="2"/>
       <c r="W13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>387.5</v>
       </c>
       <c r="Y13" s="21">
@@ -3227,11 +3283,11 @@
         <v>130</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166.6</v>
       </c>
       <c r="N14" s="23">
@@ -3265,11 +3321,11 @@
       </c>
       <c r="O14" s="29"/>
       <c r="Q14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.043217286914766</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0396158463385357</v>
       </c>
       <c r="S14" s="2">
@@ -3285,7 +3341,7 @@
         <v>145.19999999999999</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="Y14" s="21">
@@ -3296,11 +3352,11 @@
         <v>250</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -3324,7 +3380,7 @@
         <v>0.75</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.799999999999997</v>
       </c>
       <c r="N15" s="23">
@@ -3332,11 +3388,11 @@
       </c>
       <c r="O15" s="29"/>
       <c r="Q15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.673366834170855</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6231155778894477</v>
       </c>
       <c r="S15" s="2">
@@ -3351,8 +3407,9 @@
         <f>VLOOKUP(A15,[1]TDSheet!$A:$M,13,0)</f>
         <v>25.2</v>
       </c>
+      <c r="V15" s="2"/>
       <c r="W15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="Y15" s="21">
@@ -3363,11 +3420,11 @@
         <v>50</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -3396,17 +3453,17 @@
         <v>0.9</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="29"/>
       <c r="Q16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.111111111111111</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.111111111111111</v>
       </c>
       <c r="S16" s="2">
@@ -3422,7 +3479,7 @@
         <v>83.6</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y16" s="21">
@@ -3430,15 +3487,15 @@
         <v>8</v>
       </c>
       <c r="Z16" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3524,7 @@
         <v>0.9</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>194.6</v>
       </c>
       <c r="N17" s="23">
@@ -3475,11 +3532,11 @@
       </c>
       <c r="O17" s="29"/>
       <c r="Q17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.480986639260021</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3144912641315525</v>
       </c>
       <c r="S17" s="2">
@@ -3495,7 +3552,7 @@
         <v>205.2</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1080</v>
       </c>
       <c r="Y17" s="21">
@@ -3506,11 +3563,11 @@
         <v>150</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3593,7 @@
         <v>0.43</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.6</v>
       </c>
       <c r="N18" s="23">
@@ -3544,11 +3601,11 @@
       </c>
       <c r="O18" s="29"/>
       <c r="Q18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.550724637681158</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.014492753623188</v>
       </c>
       <c r="S18" s="2">
@@ -3563,8 +3620,9 @@
         <f>VLOOKUP(A18,[1]TDSheet!$A:$M,13,0)</f>
         <v>33.6</v>
       </c>
+      <c r="V18" s="2"/>
       <c r="W18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.099999999999998</v>
       </c>
       <c r="Y18" s="21">
@@ -3575,11 +3633,11 @@
         <v>5</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.4</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -3605,19 +3663,20 @@
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="N19" s="23">
-        <v>850</v>
+        <f>850+1000</f>
+        <v>1850</v>
       </c>
       <c r="O19" s="29"/>
       <c r="Q19" s="2">
-        <f t="shared" si="5"/>
-        <v>13.569518716577541</v>
+        <f t="shared" si="6"/>
+        <v>16.243315508021389</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.296791443850267</v>
       </c>
       <c r="S19" s="2">
@@ -3632,9 +3691,12 @@
         <f>VLOOKUP(A19,[1]TDSheet!$A:$M,13,0)</f>
         <v>409</v>
       </c>
+      <c r="V19" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="W19" s="2">
-        <f t="shared" si="7"/>
-        <v>850</v>
+        <f t="shared" si="8"/>
+        <v>1850</v>
       </c>
       <c r="Y19" s="21">
         <f>VLOOKUP(A19,[1]TDSheet!$A:$X,24,0)</f>
@@ -3644,11 +3706,18 @@
         <v>170</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>850</v>
       </c>
+      <c r="AB19" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC19" s="2">
+        <f>AB19*Y19*H19</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
@@ -3677,19 +3746,20 @@
         <v>0.9</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>209.2</v>
       </c>
       <c r="N20" s="23">
+        <f>1400</f>
         <v>1400</v>
       </c>
       <c r="O20" s="29"/>
       <c r="Q20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.106118546845124</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4139579349904405</v>
       </c>
       <c r="S20" s="2">
@@ -3704,8 +3774,11 @@
         <f>VLOOKUP(A20,[1]TDSheet!$A:$M,13,0)</f>
         <v>194.4</v>
       </c>
+      <c r="V20" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="W20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1260</v>
       </c>
       <c r="Y20" s="21">
@@ -3716,11 +3789,18 @@
         <v>175</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1260</v>
       </c>
+      <c r="AB20" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" ref="AC20:AC26" si="11">AB20*Y20*H20</f>
+        <v>273.60000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
@@ -3746,7 +3826,7 @@
         <v>0.43</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.6</v>
       </c>
       <c r="N21" s="23">
@@ -3754,11 +3834,11 @@
       </c>
       <c r="O21" s="29"/>
       <c r="Q21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.904494382022472</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.691011235955056</v>
       </c>
       <c r="S21" s="2">
@@ -3773,8 +3853,9 @@
         <f>VLOOKUP(A21,[1]TDSheet!$A:$M,13,0)</f>
         <v>43</v>
       </c>
+      <c r="V21" s="2"/>
       <c r="W21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
       <c r="Y21" s="21">
@@ -3785,11 +3866,18 @@
         <v>10</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.8</v>
       </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
@@ -3818,7 +3906,7 @@
         <v>0.7</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.2</v>
       </c>
       <c r="N22" s="23">
@@ -3826,11 +3914,11 @@
       </c>
       <c r="O22" s="29"/>
       <c r="Q22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.783783783783782</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3378378378378377</v>
       </c>
       <c r="S22" s="2">
@@ -3845,8 +3933,9 @@
         <f>VLOOKUP(A22,[1]TDSheet!$A:$M,13,0)</f>
         <v>42.4</v>
       </c>
+      <c r="V22" s="2"/>
       <c r="W22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="Y22" s="21">
@@ -3857,11 +3946,18 @@
         <v>63</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>352.79999999999995</v>
       </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -3887,17 +3983,17 @@
         <v>0.9</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="29"/>
       <c r="Q23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.666666666666668</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.666666666666668</v>
       </c>
       <c r="S23" s="2">
@@ -3913,7 +4009,7 @@
         <v>31.6</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y23" s="21">
@@ -3921,15 +4017,22 @@
         <v>8</v>
       </c>
       <c r="Z23" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="2">
-        <f t="shared" si="8"/>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="21.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
@@ -3954,19 +4057,19 @@
         <v>0.9</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="29"/>
       <c r="Q24" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="R24" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
@@ -3980,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y24" s="21">
@@ -3988,15 +4091,22 @@
         <v>8</v>
       </c>
       <c r="Z24" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="8"/>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
@@ -4022,19 +4132,20 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
       <c r="N25" s="23">
+        <f>1700</f>
         <v>1700</v>
       </c>
       <c r="O25" s="29"/>
       <c r="Q25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.739376770538243</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9235127478753533</v>
       </c>
       <c r="S25" s="2">
@@ -4049,8 +4160,11 @@
         <f>VLOOKUP(A25,[1]TDSheet!$A:$M,13,0)</f>
         <v>333</v>
       </c>
+      <c r="V25" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="W25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1700</v>
       </c>
       <c r="Y25" s="21">
@@ -4061,11 +4175,18 @@
         <v>340</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1700</v>
       </c>
+      <c r="AB25" s="2">
+        <v>160</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
@@ -4091,19 +4212,20 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>267.8</v>
       </c>
       <c r="N26" s="23">
+        <f>2000</f>
         <v>2000</v>
       </c>
       <c r="O26" s="29"/>
       <c r="Q26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.670649738610903</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.2023898431665421</v>
       </c>
       <c r="S26" s="2">
@@ -4118,8 +4240,11 @@
         <f>VLOOKUP(A26,[1]TDSheet!$A:$M,13,0)</f>
         <v>218.4</v>
       </c>
+      <c r="V26" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="W26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="Y26" s="21">
@@ -4130,11 +4255,18 @@
         <v>400</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
+      <c r="AB26" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="11"/>
+        <v>900</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
@@ -4156,17 +4288,17 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="29"/>
       <c r="Q27" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="2">
@@ -4182,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y27" s="21">
@@ -4190,15 +4322,15 @@
         <v>5.5</v>
       </c>
       <c r="Z27" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>31</v>
       </c>
@@ -4222,17 +4354,17 @@
         <v>0.33</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="29"/>
       <c r="Q28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.5</v>
       </c>
       <c r="S28" s="2">
@@ -4247,8 +4379,9 @@
         <f>VLOOKUP(A28,[1]TDSheet!$A:$M,13,0)</f>
         <v>1.2</v>
       </c>
+      <c r="V28" s="2"/>
       <c r="W28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y28" s="21">
@@ -4256,15 +4389,15 @@
         <v>6</v>
       </c>
       <c r="Z28" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>37</v>
       </c>
@@ -4282,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N29" s="25">
@@ -4290,11 +4423,11 @@
       </c>
       <c r="O29" s="29"/>
       <c r="Q29" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="2">
@@ -4310,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="Y29" s="21">
@@ -4321,11 +4454,11 @@
         <v>50</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
@@ -4351,7 +4484,7 @@
         <v>0.25</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="N30" s="23">
@@ -4359,11 +4492,11 @@
       </c>
       <c r="O30" s="29"/>
       <c r="Q30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7362637362637354</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4945054945054945</v>
       </c>
       <c r="S30" s="2">
@@ -4378,8 +4511,9 @@
         <f>VLOOKUP(A30,[1]TDSheet!$A:$M,13,0)</f>
         <v>85.2</v>
       </c>
+      <c r="V30" s="2"/>
       <c r="W30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="Y30" s="21">
@@ -4390,11 +4524,11 @@
         <v>125</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
@@ -4420,17 +4554,17 @@
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
       <c r="N31" s="23"/>
       <c r="O31" s="29"/>
       <c r="Q31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="S31" s="2">
@@ -4446,7 +4580,7 @@
         <v>1.08</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y31" s="21">
@@ -4454,15 +4588,15 @@
         <v>1.8</v>
       </c>
       <c r="Z31" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:27" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="11.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
@@ -4491,7 +4625,7 @@
         <v>0.25</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>215.8</v>
       </c>
       <c r="N32" s="23">
@@ -4499,11 +4633,11 @@
       </c>
       <c r="O32" s="29"/>
       <c r="Q32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.631139944392956</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0583873957367933</v>
       </c>
       <c r="S32" s="2">
@@ -4518,8 +4652,9 @@
         <f>VLOOKUP(A32,[1]TDSheet!$A:$M,13,0)</f>
         <v>111.6</v>
       </c>
+      <c r="V32" s="2"/>
       <c r="W32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>462.5</v>
       </c>
       <c r="Y32" s="21">
@@ -4530,7 +4665,7 @@
         <v>154</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>462</v>
       </c>
     </row>
@@ -4563,7 +4698,7 @@
         <v>0.25</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>249.6</v>
       </c>
       <c r="N33" s="23">
@@ -4571,11 +4706,11 @@
       </c>
       <c r="O33" s="29"/>
       <c r="Q33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5873397435897445</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1738782051282051</v>
       </c>
       <c r="S33" s="2">
@@ -4590,8 +4725,9 @@
         <f>VLOOKUP(A33,[1]TDSheet!$A:$M,13,0)</f>
         <v>101.2</v>
       </c>
+      <c r="V33" s="2"/>
       <c r="W33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
       <c r="Y33" s="21">
@@ -4602,7 +4738,7 @@
         <v>175</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>525</v>
       </c>
     </row>
@@ -4624,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N34" s="25">
@@ -4632,11 +4768,11 @@
       </c>
       <c r="O34" s="29"/>
       <c r="Q34" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="2">
@@ -4652,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="Y34" s="21">
@@ -4663,7 +4799,7 @@
         <v>93</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>251.10000000000002</v>
       </c>
     </row>
@@ -4685,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N35" s="25">
@@ -4693,13 +4829,13 @@
       </c>
       <c r="O35" s="29"/>
       <c r="Q35" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="R35" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
@@ -4713,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="Y35" s="21">
@@ -4724,7 +4860,7 @@
         <v>50</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
     </row>
@@ -4754,17 +4890,17 @@
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.2</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="29"/>
       <c r="Q36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.91503267973856206</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.91503267973856206</v>
       </c>
       <c r="S36" s="2">
@@ -4779,6 +4915,7 @@
         <f>VLOOKUP(A36,[1]TDSheet!$A:$M,13,0)</f>
         <v>80</v>
       </c>
+      <c r="V36" s="2"/>
       <c r="Y36" s="21">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$X,24,0)</f>
         <v>0</v>
@@ -4787,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4817,17 +4954,17 @@
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.6</v>
       </c>
       <c r="N37" s="23"/>
       <c r="O37" s="29"/>
       <c r="Q37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.7235772357723578</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.7235772357723578</v>
       </c>
       <c r="S37" s="2">
@@ -4842,6 +4979,7 @@
         <f>VLOOKUP(A37,[1]TDSheet!$A:$M,13,0)</f>
         <v>24.4</v>
       </c>
+      <c r="V37" s="2"/>
       <c r="Y37" s="21">
         <f>VLOOKUP(A37,[1]TDSheet!$A:$X,24,0)</f>
         <v>0</v>
@@ -4850,16 +4988,16 @@
         <v>0</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N40" s="25"/>
-      <c r="O40" s="30" t="s">
+      <c r="O40" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="31"/>
+      <c r="P40" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:AA37" xr:uid="{EEE10174-0BD7-4952-8242-3E31207C816F}"/>
